--- a/biology/Microbiologie/Calditrichota/Calditrichota.xlsx
+++ b/biology/Microbiologie/Calditrichota/Calditrichota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Calditrichota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Caldithrix qui est le genre type de cet embranchement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Calditrichota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Caldithrix qui est le genre type de cet embranchement.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé en 2017 par I.V. Kublanov sous le nom de « Calditrichaeota »[1]. Il est validé quatre ans plus tard par Oren et Garrity[2] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Caldithrix, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[3]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé en 2017 par I.V. Kublanov sous le nom de « Calditrichaeota ». Il est validé quatre ans plus tard par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Caldithrix, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste de classes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2022 selon la LPSN  (11 novembre 2022)[4] cet embranchement ne compte qu'une seule classe qui est de plus en attente de publication valide, les « Calditrichae » Kublanov et al. 2017.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022 selon la LPSN  (11 novembre 2022) cet embranchement ne compte qu'une seule classe qui est de plus en attente de publication valide, les « Calditrichae » Kublanov et al. 2017.
 Il inclut également un genre incertae sedis (positionnement taxonomique incertain) : Calorithrix Kompantseva et al. 2017.
 </t>
         </is>
